--- a/biology/Médecine/Muscle_long_de_la_tête/Muscle_long_de_la_tête.xlsx
+++ b/biology/Médecine/Muscle_long_de_la_tête/Muscle_long_de_la_tête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_long_de_la_t%C3%AAte</t>
+          <t>Muscle_long_de_la_tête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long de la tête (ou anciennement muscle grand droit antérieur de la tête) appartient au groupe profond des muscles antérieurs du cou. C'est un des muscles prévertébraux du cou. Il s'étend de la colonne vertébrale cervicale à l'os occipital. Il a une forme aplatie, plus large en haut.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_long_de_la_t%C3%AAte</t>
+          <t>Muscle_long_de_la_tête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions vertébrales
-Tubercule antérieur des processus transverses des vertèbres cervicales C3-C6.
-Trajet
-Les quatre tendons forment des faisceaux musculaires qui se réunissent en un corps s'élargissant progressivement, et se dirigeant en haut, un peu obliquement en dedans.
-Ses fibres se terminent sur une lame tendineuse à la portion moyenne du muscle.
-D'autres fibres naissent de cette lame pour continuer le corps musculaire.
-Insertion crânienne
-La lame tendineuse se termine sur une fossette de la partie basilaire de l'os occipital en avant du foramen occipital.
+          <t>Insertions vertébrales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tubercule antérieur des processus transverses des vertèbres cervicales C3-C6.
 </t>
         </is>
       </c>
@@ -531,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_long_de_la_t%C3%AAte</t>
+          <t>Muscle_long_de_la_tête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par le plexus cervical par les branches cervicales de C1 à C4.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre tendons forment des faisceaux musculaires qui se réunissent en un corps s'élargissant progressivement, et se dirigeant en haut, un peu obliquement en dedans.
+Ses fibres se terminent sur une lame tendineuse à la portion moyenne du muscle.
+D'autres fibres naissent de cette lame pour continuer le corps musculaire.
 </t>
         </is>
       </c>
@@ -562,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_long_de_la_t%C3%AAte</t>
+          <t>Muscle_long_de_la_tête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est vascularisé par les artères vertébrale et occipitale.
+          <t>Insertion crânienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lame tendineuse se termine sur une fossette de la partie basilaire de l'os occipital en avant du foramen occipital.
 </t>
         </is>
       </c>
@@ -593,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_long_de_la_t%C3%AAte</t>
+          <t>Muscle_long_de_la_tête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +633,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le plexus cervical par les branches cervicales de C1 à C4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_long_de_la_tête</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_long_de_la_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par les artères vertébrale et occipitale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_long_de_la_tête</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_long_de_la_t%C3%AAte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Par contraction bilatérale, ils provoquent une flexion de la tête.
 Par contraction unilatérale, ils provoquent une rotation homolatérale de la tête.
